--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692086.712164325</v>
+        <v>1689691.056159143</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>50.22400101683039</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>50.5636722724563</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.96764876075093</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>169.0497557819136</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>304.2834874478092</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>23.26742430832808</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>76.60129660960706</v>
       </c>
       <c r="I7" t="n">
-        <v>79.98647961312324</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>278.7138044008514</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>205.0052709001125</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>195.7398173858202</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>60.86538463674717</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>140.3829797864972</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>11.79076481679217</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>72.26558381699924</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>206.758226496619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717127</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272891</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>179.1359327421197</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>146.9393756113374</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>2.60701007315258</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>253.3939228255689</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>30.97191586386836</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.26558381699969</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>176.5196562849253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.952612783695</v>
+        <v>1205.292088491314</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.952612783695</v>
+        <v>836.329571550902</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.952612783695</v>
+        <v>478.0638729441515</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.952612783695</v>
+        <v>478.0638729441515</v>
       </c>
       <c r="F2" t="n">
-        <v>779.9667079940879</v>
+        <v>471.118372194948</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4334,13 +4334,13 @@
         <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702108</v>
+        <v>730.2783389764048</v>
       </c>
       <c r="M2" t="n">
-        <v>1166.340726290105</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1807.363935909998</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
         <v>2287.440977532827</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2539.261451982571</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2285.620590364158</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1954.557703020587</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="W2" t="n">
-        <v>1954.557703020587</v>
+        <v>1629.832263189218</v>
       </c>
       <c r="X2" t="n">
-        <v>1581.091944759507</v>
+        <v>1256.366504928138</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.952612783695</v>
+        <v>1205.292088491314</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234854</v>
+        <v>794.7800573025183</v>
       </c>
       <c r="M3" t="n">
-        <v>1157.279352600684</v>
+        <v>1058.719588798006</v>
       </c>
       <c r="N3" t="n">
-        <v>1798.302562220578</v>
+        <v>1344.053459231339</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4443,7 +4443,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.79985532281972</v>
+        <v>539.1111002202579</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>539.1111002202579</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>388.9944608079221</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>241.081367225529</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>94.19141972761864</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628692</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>766.6588426383072</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>595.9015135656672</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>341.2170253597803</v>
+        <v>1056.517821155236</v>
       </c>
       <c r="W4" t="n">
-        <v>51.79985532281972</v>
+        <v>767.1006511182752</v>
       </c>
       <c r="X4" t="n">
-        <v>51.79985532281972</v>
+        <v>539.1111002202579</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.79985532281972</v>
+        <v>539.1111002202579</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1183.403261976894</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="C5" t="n">
-        <v>814.440745036482</v>
+        <v>1888.207709079146</v>
       </c>
       <c r="D5" t="n">
-        <v>456.1750464297314</v>
+        <v>1529.942010472395</v>
       </c>
       <c r="E5" t="n">
-        <v>70.38679383148717</v>
+        <v>1144.153757874151</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228369</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>51.7998553228197</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4583,34 +4583,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2566.490317344694</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2566.490317344694</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.911089286941</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2312.911089286941</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="W5" t="n">
-        <v>1960.142434016827</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="X5" t="n">
-        <v>1960.142434016827</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="Y5" t="n">
-        <v>1570.003102041015</v>
+        <v>2257.170226019558</v>
       </c>
     </row>
     <row r="6">
@@ -4629,43 +4629,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682816</v>
+        <v>573.7192355186012</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845964</v>
+        <v>871.0311846349159</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802665</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518196</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.5942791744593</v>
+        <v>1016.553075282091</v>
       </c>
       <c r="C7" t="n">
-        <v>132.5942791744593</v>
+        <v>847.616892354184</v>
       </c>
       <c r="D7" t="n">
-        <v>132.5942791744593</v>
+        <v>697.5002529418482</v>
       </c>
       <c r="E7" t="n">
-        <v>132.5942791744593</v>
+        <v>549.5871593594551</v>
       </c>
       <c r="F7" t="n">
-        <v>132.5942791744593</v>
+        <v>402.6972118615447</v>
       </c>
       <c r="G7" t="n">
-        <v>132.5942791744593</v>
+        <v>234.7210231234341</v>
       </c>
       <c r="H7" t="n">
-        <v>132.5942791744593</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
         <v>77.98108068080549</v>
@@ -4729,46 +4729,46 @@
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>870.7935792529673</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>581.3764092160068</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="X7" t="n">
-        <v>353.3868583179894</v>
+        <v>1418.994119255861</v>
       </c>
       <c r="Y7" t="n">
-        <v>132.5942791744593</v>
+        <v>1198.201540112331</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>755.9562932262866</v>
+        <v>1748.152858153038</v>
       </c>
       <c r="C8" t="n">
-        <v>474.4271978718912</v>
+        <v>1379.190341212626</v>
       </c>
       <c r="D8" t="n">
-        <v>474.4271978718912</v>
+        <v>1020.924642605876</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718912</v>
+        <v>635.1363900076312</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228369</v>
+        <v>628.1908892584278</v>
       </c>
       <c r="G8" t="n">
-        <v>51.7998553228197</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104777</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135506</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477379</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4817,37 +4817,37 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797414</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.1612235273</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.69546526622</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.556133290408</v>
+        <v>2134.752698217159</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096208</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>598.803157343134</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594485</v>
+        <v>861.0792809845966</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.7998553228197</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C10" t="n">
-        <v>51.7998553228197</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7998553228197</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>51.7998553228197</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080543</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.049095695859</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1226.332108437455</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>971.6476202315675</v>
+        <v>1585.503483652114</v>
       </c>
       <c r="W10" t="n">
-        <v>682.2304501946069</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X10" t="n">
-        <v>454.2408992965895</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y10" t="n">
-        <v>233.4483201530594</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,16 +5112,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5130,13 +5130,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2238.116390149333</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.514925172274</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,19 +5361,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038335</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,16 +5838,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>264.0500279773684</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>117.160080479458</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,49 +5987,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>120.6800663848338</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1863.561397649904</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>120.6800663848338</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2298.539471851637</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510508</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1177.747908249255</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>1177.747908249255</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>956.9553291057244</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6695,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,49 +6929,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797183</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637303</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876611</v>
+        <v>1089.575996120531</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876611</v>
+        <v>920.6398131926237</v>
       </c>
       <c r="D37" t="n">
-        <v>580.8993044876611</v>
+        <v>770.5231737802879</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>622.6100801978948</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>475.7201326999844</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>308.5240334148644</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>166.8122022570625</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797672</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910802</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.56011257081</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235157</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258098</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602296</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396409</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359448</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614309</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179008</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741511</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>207.0311336426203</v>
       </c>
       <c r="M2" t="n">
         <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659682</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
-        <v>207.0311336426205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>119.2712440219306</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>248.760190031059</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>245.467010437719</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.763924374041</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>245.4670104377188</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906583</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>40.64330621514742</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>213.918890572245</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.000252501566294</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>45.37941682720898</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516657</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>142.4141550350976</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>107.0485416471245</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>70.46607471595087</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>146.0084629450598</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>33.12907551102214</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>37.12601365260414</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>115.4620467827008</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856556</v>
+        <v>9.000252501565825</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>110.0033420516657</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893350.7553441176</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.150411784</v>
       </c>
       <c r="D2" t="n">
         <v>533677.150411784</v>
@@ -26323,31 +26323,31 @@
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.2897985036</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
@@ -26366,13 +26366,13 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898925</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457513</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.456904235</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>6287.48053169503</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>6287.480531695031</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695042</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695061</v>
-      </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695015</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-655136.699175765</v>
+        <v>-655136.6991757649</v>
       </c>
       <c r="C6" t="n">
-        <v>138364.946535134</v>
+        <v>138364.9465351341</v>
       </c>
       <c r="D6" t="n">
-        <v>311129.3063250267</v>
+        <v>311129.3063250261</v>
       </c>
       <c r="E6" t="n">
-        <v>-83653.58830284962</v>
+        <v>-83688.32622828451</v>
       </c>
       <c r="F6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.541517466</v>
       </c>
       <c r="G6" t="n">
-        <v>417235.279442902</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="H6" t="n">
-        <v>417235.2794429019</v>
+        <v>417200.5415174658</v>
       </c>
       <c r="I6" t="n">
-        <v>417235.2794429018</v>
+        <v>417200.5415174657</v>
       </c>
       <c r="J6" t="n">
-        <v>247821.2626168536</v>
+        <v>247786.5246914179</v>
       </c>
       <c r="K6" t="n">
-        <v>417235.2794429018</v>
+        <v>417200.541517466</v>
       </c>
       <c r="L6" t="n">
-        <v>417235.2794429018</v>
+        <v>417200.541517466</v>
       </c>
       <c r="M6" t="n">
-        <v>286350.8225386668</v>
+        <v>286316.084613231</v>
       </c>
       <c r="N6" t="n">
-        <v>417235.2794429015</v>
+        <v>417200.5415174658</v>
       </c>
       <c r="O6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="P6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.5415174658</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
+        <v>939.7063906498445</v>
+      </c>
+      <c r="D3" t="n">
         <v>939.7063906498447</v>
-      </c>
-      <c r="D3" t="n">
-        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26768,7 +26768,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522339</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918297</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644026</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644026</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>159.6736912123531</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>335.6742663835973</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>124.6709059220564</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>117.1955049559054</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>102.5925582939022</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>99.66798446612492</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>70.5597636018399</v>
       </c>
       <c r="I7" t="n">
-        <v>24.50417989987788</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>86.55908737015619</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>206.5197524817569</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
@@ -28062,13 +28062,13 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>90.4867818338854</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>191.2722586870808</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-6.97563488453549e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-8.099130561614119e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30675,7 +30675,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31285,40 +31285,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,43 +31361,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>153.9723775119818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>153.9723775119818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>290.6810969936927</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>541.2980521010961</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34702,7 +34702,7 @@
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>447.0541449741274</v>
       </c>
       <c r="M2" t="n">
         <v>647.4981915352464</v>
@@ -34711,7 +34711,7 @@
         <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>484.926304669524</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
         <v>202.3276033223266</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>385.8768313911102</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>489.9773130123306</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057228</v>
+        <v>336.9735885949296</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>497.4637052508693</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,19 +35100,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321223</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671851</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>639.8201026859435</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025565</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131502</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656112</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978357</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096341</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>27.1347508453151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>27.1347508453151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>159.3393849103594</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191244</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>407.3236446867659</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
